--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.9131435</v>
+        <v>7.6494085</v>
       </c>
       <c r="H2">
-        <v>15.826287</v>
+        <v>15.298817</v>
       </c>
       <c r="I2">
-        <v>0.2753713503351227</v>
+        <v>0.2611121155001731</v>
       </c>
       <c r="J2">
-        <v>0.2124968264014718</v>
+        <v>0.2017467183721511</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.181706333333333</v>
+        <v>1.419402333333333</v>
       </c>
       <c r="N2">
-        <v>3.545119</v>
+        <v>4.258207</v>
       </c>
       <c r="O2">
-        <v>0.2978722134968806</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="P2">
-        <v>0.2978722134968805</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="Q2">
-        <v>9.351011790525501</v>
+        <v>10.85758827351983</v>
       </c>
       <c r="R2">
-        <v>56.106070743153</v>
+        <v>65.145529641119</v>
       </c>
       <c r="S2">
-        <v>0.08202547365794798</v>
+        <v>0.1066003261861801</v>
       </c>
       <c r="T2">
-        <v>0.06329690004126877</v>
+        <v>0.08236410610157406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.9131435</v>
+        <v>7.6494085</v>
       </c>
       <c r="H3">
-        <v>15.826287</v>
+        <v>15.298817</v>
       </c>
       <c r="I3">
-        <v>0.2753713503351227</v>
+        <v>0.2611121155001731</v>
       </c>
       <c r="J3">
-        <v>0.2124968264014718</v>
+        <v>0.2017467183721511</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.785452333333333</v>
+        <v>1.459340666666667</v>
       </c>
       <c r="N3">
-        <v>8.356356999999999</v>
+        <v>4.378022</v>
       </c>
       <c r="O3">
-        <v>0.7021277865031195</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="P3">
-        <v>0.7021277865031195</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="Q3">
-        <v>22.0416840260765</v>
+        <v>11.16309289999567</v>
       </c>
       <c r="R3">
-        <v>132.250104156459</v>
+        <v>66.97855739997399</v>
       </c>
       <c r="S3">
-        <v>0.1933458766771748</v>
+        <v>0.1095997853674734</v>
       </c>
       <c r="T3">
-        <v>0.149199926360203</v>
+        <v>0.08468162034467218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.299743666666667</v>
+        <v>7.6494085</v>
       </c>
       <c r="H4">
-        <v>9.899231</v>
+        <v>15.298817</v>
       </c>
       <c r="I4">
-        <v>0.114828559503536</v>
+        <v>0.2611121155001731</v>
       </c>
       <c r="J4">
-        <v>0.1329152675744518</v>
+        <v>0.2017467183721511</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.181706333333333</v>
+        <v>0.5980113333333333</v>
       </c>
       <c r="N4">
-        <v>3.545119</v>
+        <v>1.794034</v>
       </c>
       <c r="O4">
-        <v>0.2978722134968806</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="P4">
-        <v>0.2978722134968805</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="Q4">
-        <v>3.899327989276555</v>
+        <v>4.574432976296333</v>
       </c>
       <c r="R4">
-        <v>35.093951903489</v>
+        <v>27.446597857778</v>
       </c>
       <c r="S4">
-        <v>0.03420423719197653</v>
+        <v>0.04491200394651962</v>
       </c>
       <c r="T4">
-        <v>0.03959176495993211</v>
+        <v>0.0347009919259048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>9.899231</v>
       </c>
       <c r="I5">
-        <v>0.114828559503536</v>
+        <v>0.1126365586844566</v>
       </c>
       <c r="J5">
-        <v>0.1329152675744518</v>
+        <v>0.1305419476981696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.785452333333333</v>
+        <v>1.419402333333333</v>
       </c>
       <c r="N5">
-        <v>8.356356999999999</v>
+        <v>4.258207</v>
       </c>
       <c r="O5">
-        <v>0.7021277865031195</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="P5">
-        <v>0.7021277865031195</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="Q5">
-        <v>9.191278695718555</v>
+        <v>4.683663859868555</v>
       </c>
       <c r="R5">
-        <v>82.72150826146699</v>
+        <v>42.152974738817</v>
       </c>
       <c r="S5">
-        <v>0.08062432231155947</v>
+        <v>0.04598443803824161</v>
       </c>
       <c r="T5">
-        <v>0.09332350261451969</v>
+        <v>0.05329440259387318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.768461</v>
+        <v>3.299743666666667</v>
       </c>
       <c r="H6">
-        <v>11.305383</v>
+        <v>9.899231</v>
       </c>
       <c r="I6">
-        <v>0.1311395647324286</v>
+        <v>0.1126365586844566</v>
       </c>
       <c r="J6">
-        <v>0.1517954279960391</v>
+        <v>0.1305419476981696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.181706333333333</v>
+        <v>1.459340666666667</v>
       </c>
       <c r="N6">
-        <v>3.545119</v>
+        <v>4.378022</v>
       </c>
       <c r="O6">
-        <v>0.2978722134968806</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="P6">
-        <v>0.2978722134968805</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="Q6">
-        <v>4.453214230619666</v>
+        <v>4.815450122342444</v>
       </c>
       <c r="R6">
-        <v>40.078928075577</v>
+        <v>43.339051101082</v>
       </c>
       <c r="S6">
-        <v>0.03906283242386598</v>
+        <v>0.04727832192964283</v>
       </c>
       <c r="T6">
-        <v>0.04521564013588652</v>
+        <v>0.05479397009887821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.768461</v>
+        <v>3.299743666666667</v>
       </c>
       <c r="H7">
-        <v>11.305383</v>
+        <v>9.899231</v>
       </c>
       <c r="I7">
-        <v>0.1311395647324286</v>
+        <v>0.1126365586844566</v>
       </c>
       <c r="J7">
-        <v>0.1517954279960391</v>
+        <v>0.1305419476981696</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.785452333333333</v>
+        <v>0.5980113333333333</v>
       </c>
       <c r="N7">
-        <v>8.356356999999999</v>
+        <v>1.794034</v>
       </c>
       <c r="O7">
-        <v>0.7021277865031195</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="P7">
-        <v>0.7021277865031195</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="Q7">
-        <v>10.49686848552567</v>
+        <v>1.973284109761556</v>
       </c>
       <c r="R7">
-        <v>94.47181636973099</v>
+        <v>17.759556987854</v>
       </c>
       <c r="S7">
-        <v>0.09207673230856267</v>
+        <v>0.0193737987165722</v>
       </c>
       <c r="T7">
-        <v>0.1065797878601526</v>
+        <v>0.02245357500541817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.817888</v>
+        <v>6.035325333333333</v>
       </c>
       <c r="H8">
-        <v>7.635776</v>
+        <v>18.105976</v>
       </c>
       <c r="I8">
-        <v>0.1328595865837971</v>
+        <v>0.2060154802189547</v>
       </c>
       <c r="J8">
-        <v>0.1025242476085847</v>
+        <v>0.2387649477031411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.181706333333333</v>
+        <v>1.419402333333333</v>
       </c>
       <c r="N8">
-        <v>3.545119</v>
+        <v>4.258207</v>
       </c>
       <c r="O8">
-        <v>0.2978722134968806</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="P8">
-        <v>0.2978722134968805</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="Q8">
-        <v>4.511622429557333</v>
+        <v>8.56655486055911</v>
       </c>
       <c r="R8">
-        <v>27.069734577344</v>
+        <v>77.09899374503199</v>
       </c>
       <c r="S8">
-        <v>0.03957517913999609</v>
+        <v>0.08410684946071968</v>
       </c>
       <c r="T8">
-        <v>0.03053912457227138</v>
+        <v>0.09747698324233522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.817888</v>
+        <v>6.035325333333333</v>
       </c>
       <c r="H9">
-        <v>7.635776</v>
+        <v>18.105976</v>
       </c>
       <c r="I9">
-        <v>0.1328595865837971</v>
+        <v>0.2060154802189547</v>
       </c>
       <c r="J9">
-        <v>0.1025242476085847</v>
+        <v>0.2387649477031411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.785452333333333</v>
+        <v>1.459340666666667</v>
       </c>
       <c r="N9">
-        <v>8.356356999999999</v>
+        <v>4.378022</v>
       </c>
       <c r="O9">
-        <v>0.7021277865031195</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="P9">
-        <v>0.7021277865031195</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="Q9">
-        <v>10.63454503800533</v>
+        <v>8.807595695496888</v>
       </c>
       <c r="R9">
-        <v>63.807270228032</v>
+        <v>79.26836125947199</v>
       </c>
       <c r="S9">
-        <v>0.09328440744380098</v>
+        <v>0.08647340002252565</v>
       </c>
       <c r="T9">
-        <v>0.0719851230363133</v>
+        <v>0.1002197350031539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.590836</v>
+        <v>6.035325333333333</v>
       </c>
       <c r="H10">
-        <v>16.772508</v>
+        <v>18.105976</v>
       </c>
       <c r="I10">
-        <v>0.1945568229392297</v>
+        <v>0.2060154802189547</v>
       </c>
       <c r="J10">
-        <v>0.22520157259838</v>
+        <v>0.2387649477031411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.181706333333333</v>
+        <v>0.5980113333333333</v>
       </c>
       <c r="N10">
-        <v>3.545119</v>
+        <v>1.794034</v>
       </c>
       <c r="O10">
-        <v>0.2978722134968806</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="P10">
-        <v>0.2978722134968805</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="Q10">
-        <v>6.606726309828001</v>
+        <v>3.609192949687111</v>
       </c>
       <c r="R10">
-        <v>59.460536788452</v>
+        <v>32.482736547184</v>
       </c>
       <c r="S10">
-        <v>0.05795307149982902</v>
+        <v>0.03543523073570937</v>
       </c>
       <c r="T10">
-        <v>0.06708129091285787</v>
+        <v>0.04106822945765193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.590836</v>
+        <v>4.4052735</v>
       </c>
       <c r="H11">
-        <v>16.772508</v>
+        <v>8.810547</v>
       </c>
       <c r="I11">
-        <v>0.1945568229392297</v>
+        <v>0.150373755427214</v>
       </c>
       <c r="J11">
-        <v>0.22520157259838</v>
+        <v>0.1161853850734734</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.785452333333333</v>
+        <v>1.419402333333333</v>
       </c>
       <c r="N11">
-        <v>8.356356999999999</v>
+        <v>4.258207</v>
       </c>
       <c r="O11">
-        <v>0.7021277865031195</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="P11">
-        <v>0.7021277865031195</v>
+        <v>0.4082549979803961</v>
       </c>
       <c r="Q11">
-        <v>15.573007181484</v>
+        <v>6.2528554848715</v>
       </c>
       <c r="R11">
-        <v>140.157064633356</v>
+        <v>37.517132909229</v>
       </c>
       <c r="S11">
-        <v>0.1366037514394007</v>
+        <v>0.06139083721824182</v>
       </c>
       <c r="T11">
-        <v>0.1581202816855221</v>
+        <v>0.0474332641485224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.346190666666667</v>
+        <v>4.4052735</v>
       </c>
       <c r="H12">
-        <v>13.038572</v>
+        <v>8.810547</v>
       </c>
       <c r="I12">
-        <v>0.1512441159058859</v>
+        <v>0.150373755427214</v>
       </c>
       <c r="J12">
-        <v>0.1750666578210727</v>
+        <v>0.1161853850734734</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.181706333333333</v>
+        <v>1.459340666666667</v>
       </c>
       <c r="N12">
-        <v>3.545119</v>
+        <v>4.378022</v>
       </c>
       <c r="O12">
-        <v>0.2978722134968806</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="P12">
-        <v>0.2978722134968805</v>
+        <v>0.4197422442751443</v>
       </c>
       <c r="Q12">
-        <v>5.135921036674223</v>
+        <v>6.428794766338999</v>
       </c>
       <c r="R12">
-        <v>46.223289330068</v>
+        <v>38.572768598034</v>
       </c>
       <c r="S12">
-        <v>0.04505141958326498</v>
+        <v>0.06311821758310047</v>
       </c>
       <c r="T12">
-        <v>0.05214749287466389</v>
+        <v>0.04876791428271156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.346190666666667</v>
+        <v>4.4052735</v>
       </c>
       <c r="H13">
-        <v>13.038572</v>
+        <v>8.810547</v>
       </c>
       <c r="I13">
-        <v>0.1512441159058859</v>
+        <v>0.150373755427214</v>
       </c>
       <c r="J13">
-        <v>0.1750666578210727</v>
+        <v>0.1161853850734734</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.785452333333333</v>
+        <v>0.5980113333333333</v>
       </c>
       <c r="N13">
-        <v>8.356356999999999</v>
+        <v>1.794034</v>
       </c>
       <c r="O13">
-        <v>0.7021277865031195</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="P13">
-        <v>0.7021277865031195</v>
+        <v>0.1720027577444596</v>
       </c>
       <c r="Q13">
-        <v>12.10610693357822</v>
+        <v>2.634403479433</v>
       </c>
       <c r="R13">
-        <v>108.954962402204</v>
+        <v>15.806420876598</v>
       </c>
       <c r="S13">
-        <v>0.1061926963226209</v>
+        <v>0.0258647006258717</v>
       </c>
       <c r="T13">
-        <v>0.1229191649464088</v>
+        <v>0.01998420664223938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.902894666666666</v>
+      </c>
+      <c r="H14">
+        <v>14.708684</v>
+      </c>
+      <c r="I14">
+        <v>0.1673600250905478</v>
+      </c>
+      <c r="J14">
+        <v>0.1939645874954229</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.419402333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.258207</v>
+      </c>
+      <c r="O14">
+        <v>0.4082549979803961</v>
+      </c>
+      <c r="P14">
+        <v>0.4082549979803961</v>
+      </c>
+      <c r="Q14">
+        <v>6.959180129954221</v>
+      </c>
+      <c r="R14">
+        <v>62.63262116958798</v>
+      </c>
+      <c r="S14">
+        <v>0.06832556670534061</v>
+      </c>
+      <c r="T14">
+        <v>0.07918701227621225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.902894666666666</v>
+      </c>
+      <c r="H15">
+        <v>14.708684</v>
+      </c>
+      <c r="I15">
+        <v>0.1673600250905478</v>
+      </c>
+      <c r="J15">
+        <v>0.1939645874954229</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.459340666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.378022</v>
+      </c>
+      <c r="O15">
+        <v>0.4197422442751443</v>
+      </c>
+      <c r="P15">
+        <v>0.4197422442751443</v>
+      </c>
+      <c r="Q15">
+        <v>7.154993571449777</v>
+      </c>
+      <c r="R15">
+        <v>64.39494214304798</v>
+      </c>
+      <c r="S15">
+        <v>0.07024807253345099</v>
+      </c>
+      <c r="T15">
+        <v>0.08141513126523142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.902894666666666</v>
+      </c>
+      <c r="H16">
+        <v>14.708684</v>
+      </c>
+      <c r="I16">
+        <v>0.1673600250905478</v>
+      </c>
+      <c r="J16">
+        <v>0.1939645874954229</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5980113333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.794034</v>
+      </c>
+      <c r="O16">
+        <v>0.1720027577444596</v>
+      </c>
+      <c r="P16">
+        <v>0.1720027577444596</v>
+      </c>
+      <c r="Q16">
+        <v>2.931986576806222</v>
+      </c>
+      <c r="R16">
+        <v>26.38787919125599</v>
+      </c>
+      <c r="S16">
+        <v>0.02878638585175616</v>
+      </c>
+      <c r="T16">
+        <v>0.03336244395397926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.002848666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.008546000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1025020650786538</v>
+      </c>
+      <c r="J17">
+        <v>0.1187964136576422</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.419402333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.258207</v>
+      </c>
+      <c r="O17">
+        <v>0.4082549979803961</v>
+      </c>
+      <c r="P17">
+        <v>0.4082549979803961</v>
+      </c>
+      <c r="Q17">
+        <v>4.262250404113556</v>
+      </c>
+      <c r="R17">
+        <v>38.360253637022</v>
+      </c>
+      <c r="S17">
+        <v>0.04184698037167223</v>
+      </c>
+      <c r="T17">
+        <v>0.048499229617879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.002848666666667</v>
+      </c>
+      <c r="H18">
+        <v>9.008546000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1025020650786538</v>
+      </c>
+      <c r="J18">
+        <v>0.1187964136576422</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.459340666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.378022</v>
+      </c>
+      <c r="O18">
+        <v>0.4197422442751443</v>
+      </c>
+      <c r="P18">
+        <v>0.4197422442751443</v>
+      </c>
+      <c r="Q18">
+        <v>4.382179175112444</v>
+      </c>
+      <c r="R18">
+        <v>39.439612576012</v>
+      </c>
+      <c r="S18">
+        <v>0.04302444683895105</v>
+      </c>
+      <c r="T18">
+        <v>0.04986387328049713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.002848666666667</v>
+      </c>
+      <c r="H19">
+        <v>9.008546000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1025020650786538</v>
+      </c>
+      <c r="J19">
+        <v>0.1187964136576422</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5980113333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.794034</v>
+      </c>
+      <c r="O19">
+        <v>0.1720027577444596</v>
+      </c>
+      <c r="P19">
+        <v>0.1720027577444596</v>
+      </c>
+      <c r="Q19">
+        <v>1.795737534951556</v>
+      </c>
+      <c r="R19">
+        <v>16.161637814564</v>
+      </c>
+      <c r="S19">
+        <v>0.01763063786803052</v>
+      </c>
+      <c r="T19">
+        <v>0.02043331075926603</v>
       </c>
     </row>
   </sheetData>
